--- a/uprx/UPRX機能画面確認用一覧/UPRX機能問題画面.xlsx
+++ b/uprx/UPRX機能画面確認用一覧/UPRX機能問題画面.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Pky00701</t>
   </si>
@@ -74,6 +74,19 @@
   </si>
   <si>
     <t>授课大纲录入对象授课一览</t>
+  </si>
+  <si>
+    <t>Bsf00301</t>
+  </si>
+  <si>
+    <t>Q&amp;A一览</t>
+  </si>
+  <si>
+    <t>Kmc50201</t>
+  </si>
+  <si>
+    <t>考试时间安排表(手机)</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -107,11 +120,13 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1286,6 +1301,382 @@
         <a:xfrm>
           <a:off x="8001000" y="55778400"/>
           <a:ext cx="1504950" cy="3133725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>313102</xdr:colOff>
+      <xdr:row>373</xdr:row>
+      <xdr:rowOff>104209</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="59531250"/>
+          <a:ext cx="9780952" cy="4523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>359</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>370</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="61598175"/>
+          <a:ext cx="1619250" cy="1971675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>359</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>369</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7762874" y="61607701"/>
+          <a:ext cx="1704975" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>377</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>551883</xdr:colOff>
+      <xdr:row>410</xdr:row>
+      <xdr:rowOff>85019</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="64731900"/>
+          <a:ext cx="4533333" cy="5647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>393</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>395</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="895350" y="67494150"/>
+          <a:ext cx="304800" cy="371474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>385</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>388</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="885825" y="66084450"/>
+          <a:ext cx="304800" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>401</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>403</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914399" y="68799075"/>
+          <a:ext cx="295275" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1614,10 +2005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C314"/>
+  <dimension ref="A1:C377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="P325" sqref="P325"/>
+    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
+      <selection activeCell="K392" sqref="K392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1706,6 +2097,22 @@
         <v>19</v>
       </c>
     </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A347" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A377" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
